--- a/Final List with Registration No.xlsx
+++ b/Final List with Registration No.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -79,12 +79,6 @@
     <x:t>Christina Erickson</x:t>
   </x:si>
   <x:si>
-    <x:t>Guy Mills</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeffery Barker</x:t>
-  </x:si>
-  <x:si>
     <x:t>Dylan Newton</x:t>
   </x:si>
   <x:si>
@@ -115,12 +109,6 @@
     <x:t>Bryce Coleman</x:t>
   </x:si>
   <x:si>
-    <x:t>Sara Sanders</x:t>
-  </x:si>
-  <x:si>
-    <x:t>David Preston</x:t>
-  </x:si>
-  <x:si>
     <x:t>Megan Mendoza</x:t>
   </x:si>
   <x:si>
@@ -136,9 +124,6 @@
     <x:t>Heidi Mosley</x:t>
   </x:si>
   <x:si>
-    <x:t>Candice Decker PhD</x:t>
-  </x:si>
-  <x:si>
     <x:t>Gregory Cunningham</x:t>
   </x:si>
   <x:si>
@@ -166,12 +151,6 @@
     <x:t>Mr. Michael Bailey III</x:t>
   </x:si>
   <x:si>
-    <x:t>Rachel Anderson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Erik Oconnor</x:t>
-  </x:si>
-  <x:si>
     <x:t>Nathaniel Jones</x:t>
   </x:si>
   <x:si>
@@ -196,22 +175,22 @@
     <x:t>Charles Chapman</x:t>
   </x:si>
   <x:si>
+    <x:t>Timothy Butler</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jason Berg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lance Cooley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sydney Hendricks</x:t>
+  </x:si>
+  <x:si>
     <x:t>Eduardo Smith</x:t>
   </x:si>
   <x:si>
     <x:t>George Hill</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Timothy Butler</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jason Berg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lance Cooley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sydney Hendricks</x:t>
   </x:si>
   <x:si>
     <x:t>Suzanne Price</x:t>
@@ -814,7 +793,7 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="1">
-        <x:v>45417.8930555556</x:v>
+        <x:v>45417.8368055556</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>21</x:v>
@@ -823,13 +802,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>71364235</x:v>
+        <x:v>61276100</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>1009</x:v>
@@ -840,22 +819,22 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="1">
-        <x:v>45417.9180555556</x:v>
+        <x:v>45417.8416666667</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>58555238</x:v>
+        <x:v>79466164</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>1010</x:v>
@@ -866,22 +845,22 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="1">
-        <x:v>45417.8368055556</x:v>
+        <x:v>45417.8486111111</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>61276100</x:v>
+        <x:v>64709089</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>1011</x:v>
@@ -892,7 +871,7 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="1">
-        <x:v>45417.8416666667</x:v>
+        <x:v>45417.8652777778</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>26</x:v>
@@ -901,13 +880,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>79466164</x:v>
+        <x:v>53529073</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>1012</x:v>
@@ -918,7 +897,7 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="1">
-        <x:v>45417.8486111111</x:v>
+        <x:v>45417.8673611111</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>27</x:v>
@@ -927,13 +906,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>64709089</x:v>
+        <x:v>76273159</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>1013</x:v>
@@ -944,7 +923,7 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="1">
-        <x:v>45417.8652777778</x:v>
+        <x:v>45417.8736111111</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>28</x:v>
@@ -953,13 +932,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>53529073</x:v>
+        <x:v>73430518</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>1014</x:v>
@@ -970,7 +949,7 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="1">
-        <x:v>45417.8673611111</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>29</x:v>
@@ -979,13 +958,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>76273159</x:v>
+        <x:v>67853509</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>1015</x:v>
@@ -996,7 +975,7 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="1">
-        <x:v>45417.8736111111</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>30</x:v>
@@ -1005,13 +984,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>73430518</x:v>
+        <x:v>41599890</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>1016</x:v>
@@ -1022,7 +1001,7 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8472222222</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>31</x:v>
@@ -1031,13 +1010,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>67853509</x:v>
+        <x:v>40138873</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>1017</x:v>
@@ -1048,22 +1027,22 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8833333333</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>41599890</x:v>
+        <x:v>95133747</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>1018</x:v>
@@ -1074,22 +1053,22 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="1">
-        <x:v>45417.8819444444</x:v>
+        <x:v>45417.9034722222</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>95775763</x:v>
+        <x:v>91437948</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>1019</x:v>
@@ -1100,22 +1079,22 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="1">
-        <x:v>45417.8951388889</x:v>
+        <x:v>45417.9319444444</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>96221071</x:v>
+        <x:v>68716753</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>1020</x:v>
@@ -1126,22 +1105,22 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="1">
-        <x:v>45417.8472222222</x:v>
+        <x:v>45417.8451388889</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>40138873</x:v>
+        <x:v>25117751</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>1021</x:v>
@@ -1152,22 +1131,22 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="1">
-        <x:v>45417.8833333333</x:v>
+        <x:v>45417.85</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>95133747</x:v>
+        <x:v>76751186</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>1022</x:v>
@@ -1178,22 +1157,22 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="1">
-        <x:v>45417.9034722222</x:v>
+        <x:v>45417.8638888889</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>91437948</x:v>
+        <x:v>29607507</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>1023</x:v>
@@ -1204,22 +1183,22 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="1">
-        <x:v>45417.9319444444</x:v>
+        <x:v>45417.8680555556</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>68716753</x:v>
+        <x:v>93311549</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>1024</x:v>
@@ -1230,22 +1209,22 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="1">
-        <x:v>45417.9381944444</x:v>
+        <x:v>45417.8909722222</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>18200415</x:v>
+        <x:v>23057655</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>1025</x:v>
@@ -1256,13 +1235,13 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="1">
-        <x:v>45417.8451388889</x:v>
+        <x:v>45417.8958333333</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>10</x:v>
@@ -1271,7 +1250,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>25117751</x:v>
+        <x:v>22486634</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>1026</x:v>
@@ -1282,13 +1261,13 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="1">
-        <x:v>45417.85</x:v>
+        <x:v>45417.90625</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>10</x:v>
@@ -1297,7 +1276,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>76751186</x:v>
+        <x:v>90886403</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>1027</x:v>
@@ -1308,13 +1287,13 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="1">
-        <x:v>45417.8638888889</x:v>
+        <x:v>45417.9298611111</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>10</x:v>
@@ -1323,7 +1302,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>29607507</x:v>
+        <x:v>86138263</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>1028</x:v>
@@ -1334,22 +1313,22 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="1">
-        <x:v>45417.8680555556</x:v>
+        <x:v>45417.8381944444</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>93311549</x:v>
+        <x:v>85106913</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>1029</x:v>
@@ -1360,22 +1339,22 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="1">
-        <x:v>45417.8909722222</x:v>
+        <x:v>45417.8708333333</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>23057655</x:v>
+        <x:v>12501967</x:v>
       </x:c>
       <x:c r="G31" s="0" t="n">
         <x:v>1030</x:v>
@@ -1386,22 +1365,22 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="1">
-        <x:v>45417.8958333333</x:v>
+        <x:v>45417.8888888889</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>22486634</x:v>
+        <x:v>52274103</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>1031</x:v>
@@ -1412,22 +1391,22 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="1">
-        <x:v>45417.90625</x:v>
+        <x:v>45417.8979166667</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>90886403</x:v>
+        <x:v>79155582</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>1032</x:v>
@@ -1438,22 +1417,22 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="1">
-        <x:v>45417.9298611111</x:v>
+        <x:v>45417.9006944444</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>86138263</x:v>
+        <x:v>51214237</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>1033</x:v>
@@ -1464,22 +1443,22 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="1">
-        <x:v>45417.9347222222</x:v>
+        <x:v>45417.9104166667</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>15764979</x:v>
+        <x:v>22193463</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>1034</x:v>
@@ -1490,22 +1469,22 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="1">
-        <x:v>45417.9395833333</x:v>
+        <x:v>45417.9138888889</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>58719994</x:v>
+        <x:v>78752400</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>1035</x:v>
@@ -1516,22 +1495,22 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="1">
-        <x:v>45417.8381944444</x:v>
+        <x:v>45417.9270833333</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>85106913</x:v>
+        <x:v>63113515</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>1036</x:v>
@@ -1542,22 +1521,22 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="1">
-        <x:v>45417.8708333333</x:v>
+        <x:v>45417.8611111111</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>12501967</x:v>
+        <x:v>86467940</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>1037</x:v>
@@ -1568,22 +1547,22 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="1">
-        <x:v>45417.8888888889</x:v>
+        <x:v>45417.86875</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>52274103</x:v>
+        <x:v>89442809</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>1038</x:v>
@@ -1594,22 +1573,22 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="1">
-        <x:v>45417.8979166667</x:v>
+        <x:v>45417.8805555556</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>79155582</x:v>
+        <x:v>17283267</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>1039</x:v>
@@ -1620,22 +1599,22 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="1">
-        <x:v>45417.9006944444</x:v>
+        <x:v>45417.8847222222</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>51214237</x:v>
+        <x:v>22872164</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>1040</x:v>
@@ -1649,13 +1628,13 @@
         <x:v>45417.9104166667</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>14</x:v>
@@ -1675,13 +1654,13 @@
         <x:v>45417.9138888889</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>14</x:v>
@@ -1701,13 +1680,13 @@
         <x:v>45417.9270833333</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>14</x:v>
@@ -1727,13 +1706,13 @@
         <x:v>45417.9340277778</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>14</x:v>
@@ -1753,13 +1732,13 @@
         <x:v>45417.9576388889</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>14</x:v>
@@ -1779,13 +1758,13 @@
         <x:v>45417.8611111111</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>14</x:v>
@@ -1805,13 +1784,13 @@
         <x:v>45417.86875</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>14</x:v>
@@ -1831,13 +1810,13 @@
         <x:v>45417.8805555556</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>14</x:v>
@@ -1857,13 +1836,13 @@
         <x:v>45417.8847222222</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>14</x:v>
@@ -1883,13 +1862,13 @@
         <x:v>45417.9020833333</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>14</x:v>

--- a/Final List with Registration No.xlsx
+++ b/Final List with Registration No.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -67,24 +67,6 @@
     <x:t>Thomas Duffy</x:t>
   </x:si>
   <x:si>
-    <x:t>James Wood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morgan Sellers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Austin Daniel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Christina Erickson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Guy Mills</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeffery Barker</x:t>
-  </x:si>
-  <x:si>
     <x:t>Dylan Newton</x:t>
   </x:si>
   <x:si>
@@ -103,24 +85,6 @@
     <x:t>Heather Baker</x:t>
   </x:si>
   <x:si>
-    <x:t>Joyce Harris</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Patricia May</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mark Brown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bryce Coleman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sara Sanders</x:t>
-  </x:si>
-  <x:si>
-    <x:t>David Preston</x:t>
-  </x:si>
-  <x:si>
     <x:t>Megan Mendoza</x:t>
   </x:si>
   <x:si>
@@ -130,6 +94,39 @@
     <x:t>Krista Ramos</x:t>
   </x:si>
   <x:si>
+    <x:t>Gregory Cunningham</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elizabeth Duarte</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeffery Moore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bryan Smith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nathaniel Jones</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ruth Bowers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jessica Campbell</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeffrey Owens</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Timothy Butler</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jason Berg</x:t>
+  </x:si>
+  <x:si>
     <x:t>Amanda Miller</x:t>
   </x:si>
   <x:si>
@@ -139,21 +136,6 @@
     <x:t>Candice Decker PhD</x:t>
   </x:si>
   <x:si>
-    <x:t>Gregory Cunningham</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Female</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elizabeth Duarte</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeffery Moore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bryan Smith</x:t>
-  </x:si>
-  <x:si>
     <x:t>Michele Mccall</x:t>
   </x:si>
   <x:si>
@@ -172,18 +154,6 @@
     <x:t>Erik Oconnor</x:t>
   </x:si>
   <x:si>
-    <x:t>Nathaniel Jones</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ruth Bowers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jessica Campbell</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jeffrey Owens</x:t>
-  </x:si>
-  <x:si>
     <x:t>Brittany Perkins</x:t>
   </x:si>
   <x:si>
@@ -200,12 +170,6 @@
   </x:si>
   <x:si>
     <x:t>George Hill</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Timothy Butler</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jason Berg</x:t>
   </x:si>
   <x:si>
     <x:t>Lance Cooley</x:t>
@@ -710,7 +674,7 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="1">
-        <x:v>45417.85625</x:v>
+        <x:v>45417.8368055556</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>17</x:v>
@@ -719,13 +683,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>49884959</x:v>
+        <x:v>61276100</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>1005</x:v>
@@ -736,22 +700,22 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="1">
-        <x:v>45417.8576388889</x:v>
+        <x:v>45417.8416666667</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>21565376</x:v>
+        <x:v>79466164</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1006</x:v>
@@ -762,22 +726,22 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="1">
-        <x:v>45417.8729166667</x:v>
+        <x:v>45417.8486111111</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>82943130</x:v>
+        <x:v>64709089</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>1007</x:v>
@@ -788,22 +752,22 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="1">
-        <x:v>45417.8861111111</x:v>
+        <x:v>45417.8652777778</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>18674699</x:v>
+        <x:v>53529073</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>1008</x:v>
@@ -814,22 +778,22 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="1">
-        <x:v>45417.8930555556</x:v>
+        <x:v>45417.8472222222</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>71364235</x:v>
+        <x:v>40138873</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>1009</x:v>
@@ -840,22 +804,22 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="1">
-        <x:v>45417.9180555556</x:v>
+        <x:v>45417.8833333333</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>58555238</x:v>
+        <x:v>95133747</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>1010</x:v>
@@ -866,22 +830,22 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="1">
-        <x:v>45417.8368055556</x:v>
+        <x:v>45417.8451388889</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>61276100</x:v>
+        <x:v>25117751</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>1011</x:v>
@@ -892,22 +856,22 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="1">
-        <x:v>45417.8416666667</x:v>
+        <x:v>45417.85</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>79466164</x:v>
+        <x:v>76751186</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>1012</x:v>
@@ -918,22 +882,22 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="1">
-        <x:v>45417.8486111111</x:v>
+        <x:v>45417.8638888889</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>64709089</x:v>
+        <x:v>29607507</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>1013</x:v>
@@ -944,22 +908,22 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="1">
-        <x:v>45417.8652777778</x:v>
+        <x:v>45417.8680555556</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>53529073</x:v>
+        <x:v>93311549</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>1014</x:v>
@@ -970,22 +934,22 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="1">
-        <x:v>45417.8673611111</x:v>
+        <x:v>45417.8381944444</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>76273159</x:v>
+        <x:v>85106913</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>1015</x:v>
@@ -996,22 +960,22 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="1">
-        <x:v>45417.8736111111</x:v>
+        <x:v>45417.8708333333</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>73430518</x:v>
+        <x:v>12501967</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>1016</x:v>
@@ -1022,22 +986,22 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8888888889</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>67853509</x:v>
+        <x:v>52274103</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>1017</x:v>
@@ -1048,22 +1012,22 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8979166667</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>41599890</x:v>
+        <x:v>79155582</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>1018</x:v>
@@ -1074,13 +1038,13 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="1">
-        <x:v>45417.8819444444</x:v>
+        <x:v>45417.8611111111</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
         <x:v>24</x:v>
@@ -1089,7 +1053,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>95775763</x:v>
+        <x:v>86467940</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>1019</x:v>
@@ -1100,13 +1064,13 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="1">
-        <x:v>45417.8951388889</x:v>
+        <x:v>45417.86875</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
         <x:v>24</x:v>
@@ -1115,7 +1079,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>96221071</x:v>
+        <x:v>89442809</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>1020</x:v>
@@ -1129,13 +1093,13 @@
         <x:v>45417.8472222222</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>14</x:v>
@@ -1155,13 +1119,13 @@
         <x:v>45417.8833333333</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>14</x:v>
@@ -1181,13 +1145,13 @@
         <x:v>45417.9034722222</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>14</x:v>
@@ -1207,13 +1171,13 @@
         <x:v>45417.9319444444</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>14</x:v>
@@ -1233,13 +1197,13 @@
         <x:v>45417.9381944444</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>14</x:v>
@@ -1259,10 +1223,10 @@
         <x:v>45417.8451388889</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>10</x:v>
@@ -1285,10 +1249,10 @@
         <x:v>45417.85</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>10</x:v>
@@ -1311,10 +1275,10 @@
         <x:v>45417.8638888889</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>10</x:v>
@@ -1337,10 +1301,10 @@
         <x:v>45417.8680555556</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
         <x:v>10</x:v>
@@ -1363,10 +1327,10 @@
         <x:v>45417.8909722222</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
         <x:v>10</x:v>
@@ -1389,10 +1353,10 @@
         <x:v>45417.8958333333</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>10</x:v>
@@ -1415,10 +1379,10 @@
         <x:v>45417.90625</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>10</x:v>
@@ -1441,10 +1405,10 @@
         <x:v>45417.9298611111</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
         <x:v>10</x:v>
@@ -1467,10 +1431,10 @@
         <x:v>45417.9347222222</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>10</x:v>
@@ -1493,10 +1457,10 @@
         <x:v>45417.9395833333</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
         <x:v>10</x:v>
@@ -1519,13 +1483,13 @@
         <x:v>45417.8381944444</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>14</x:v>
@@ -1545,13 +1509,13 @@
         <x:v>45417.8708333333</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>14</x:v>
@@ -1571,13 +1535,13 @@
         <x:v>45417.8888888889</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>14</x:v>
@@ -1597,13 +1561,13 @@
         <x:v>45417.8979166667</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>14</x:v>
@@ -1623,13 +1587,13 @@
         <x:v>45417.9006944444</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>14</x:v>
@@ -1649,13 +1613,13 @@
         <x:v>45417.9104166667</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>14</x:v>
@@ -1675,13 +1639,13 @@
         <x:v>45417.9138888889</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>14</x:v>
@@ -1701,13 +1665,13 @@
         <x:v>45417.9270833333</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>14</x:v>
@@ -1727,13 +1691,13 @@
         <x:v>45417.9340277778</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>14</x:v>
@@ -1753,13 +1717,13 @@
         <x:v>45417.9576388889</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>14</x:v>
@@ -1779,13 +1743,13 @@
         <x:v>45417.8611111111</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>14</x:v>
@@ -1805,13 +1769,13 @@
         <x:v>45417.86875</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>14</x:v>
@@ -1831,13 +1795,13 @@
         <x:v>45417.8805555556</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>14</x:v>
@@ -1857,13 +1821,13 @@
         <x:v>45417.8847222222</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>14</x:v>
@@ -1883,13 +1847,13 @@
         <x:v>45417.9020833333</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>14</x:v>

--- a/Final List with Registration No.xlsx
+++ b/Final List with Registration No.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -79,6 +79,12 @@
     <x:t>Christina Erickson</x:t>
   </x:si>
   <x:si>
+    <x:t>Guy Mills</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeffery Barker</x:t>
+  </x:si>
+  <x:si>
     <x:t>Dylan Newton</x:t>
   </x:si>
   <x:si>
@@ -109,6 +115,12 @@
     <x:t>Bryce Coleman</x:t>
   </x:si>
   <x:si>
+    <x:t>Sara Sanders</x:t>
+  </x:si>
+  <x:si>
+    <x:t>David Preston</x:t>
+  </x:si>
+  <x:si>
     <x:t>Megan Mendoza</x:t>
   </x:si>
   <x:si>
@@ -124,6 +136,9 @@
     <x:t>Heidi Mosley</x:t>
   </x:si>
   <x:si>
+    <x:t>Candice Decker PhD</x:t>
+  </x:si>
+  <x:si>
     <x:t>Gregory Cunningham</x:t>
   </x:si>
   <x:si>
@@ -151,6 +166,12 @@
     <x:t>Mr. Michael Bailey III</x:t>
   </x:si>
   <x:si>
+    <x:t>Rachel Anderson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Erik Oconnor</x:t>
+  </x:si>
+  <x:si>
     <x:t>Nathaniel Jones</x:t>
   </x:si>
   <x:si>
@@ -175,6 +196,12 @@
     <x:t>Charles Chapman</x:t>
   </x:si>
   <x:si>
+    <x:t>Eduardo Smith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>George Hill</x:t>
+  </x:si>
+  <x:si>
     <x:t>Timothy Butler</x:t>
   </x:si>
   <x:si>
@@ -185,12 +212,6 @@
   </x:si>
   <x:si>
     <x:t>Sydney Hendricks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eduardo Smith</x:t>
-  </x:si>
-  <x:si>
-    <x:t>George Hill</x:t>
   </x:si>
   <x:si>
     <x:t>Suzanne Price</x:t>
@@ -793,7 +814,7 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="1">
-        <x:v>45417.8368055556</x:v>
+        <x:v>45417.8930555556</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>21</x:v>
@@ -802,13 +823,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>61276100</x:v>
+        <x:v>71364235</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>1009</x:v>
@@ -819,22 +840,22 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="1">
-        <x:v>45417.8416666667</x:v>
+        <x:v>45417.9180555556</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>79466164</x:v>
+        <x:v>58555238</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>1010</x:v>
@@ -845,22 +866,22 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="1">
-        <x:v>45417.8486111111</x:v>
+        <x:v>45417.8368055556</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>64709089</x:v>
+        <x:v>61276100</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>1011</x:v>
@@ -871,7 +892,7 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="1">
-        <x:v>45417.8652777778</x:v>
+        <x:v>45417.8416666667</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>26</x:v>
@@ -880,13 +901,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>53529073</x:v>
+        <x:v>79466164</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>1012</x:v>
@@ -897,7 +918,7 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="1">
-        <x:v>45417.8673611111</x:v>
+        <x:v>45417.8486111111</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>27</x:v>
@@ -906,13 +927,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>76273159</x:v>
+        <x:v>64709089</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>1013</x:v>
@@ -923,7 +944,7 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="1">
-        <x:v>45417.8736111111</x:v>
+        <x:v>45417.8652777778</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>28</x:v>
@@ -932,13 +953,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>73430518</x:v>
+        <x:v>53529073</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>1014</x:v>
@@ -949,7 +970,7 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8673611111</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>29</x:v>
@@ -958,13 +979,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>67853509</x:v>
+        <x:v>76273159</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>1015</x:v>
@@ -975,7 +996,7 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8736111111</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>30</x:v>
@@ -984,13 +1005,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>41599890</x:v>
+        <x:v>73430518</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>1016</x:v>
@@ -1001,7 +1022,7 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="1">
-        <x:v>45417.8472222222</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>31</x:v>
@@ -1010,13 +1031,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>40138873</x:v>
+        <x:v>67853509</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>1017</x:v>
@@ -1027,22 +1048,22 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="1">
-        <x:v>45417.8833333333</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>95133747</x:v>
+        <x:v>41599890</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>1018</x:v>
@@ -1053,22 +1074,22 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="1">
-        <x:v>45417.9034722222</x:v>
+        <x:v>45417.8819444444</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>91437948</x:v>
+        <x:v>95775763</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>1019</x:v>
@@ -1079,22 +1100,22 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="1">
-        <x:v>45417.9319444444</x:v>
+        <x:v>45417.8951388889</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>68716753</x:v>
+        <x:v>96221071</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>1020</x:v>
@@ -1105,22 +1126,22 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="1">
-        <x:v>45417.8451388889</x:v>
+        <x:v>45417.8472222222</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>25117751</x:v>
+        <x:v>40138873</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>1021</x:v>
@@ -1131,22 +1152,22 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="1">
-        <x:v>45417.85</x:v>
+        <x:v>45417.8833333333</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>76751186</x:v>
+        <x:v>95133747</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>1022</x:v>
@@ -1157,22 +1178,22 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="1">
-        <x:v>45417.8638888889</x:v>
+        <x:v>45417.9034722222</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>29607507</x:v>
+        <x:v>91437948</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>1023</x:v>
@@ -1183,22 +1204,22 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="1">
-        <x:v>45417.8680555556</x:v>
+        <x:v>45417.9319444444</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>93311549</x:v>
+        <x:v>68716753</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>1024</x:v>
@@ -1209,22 +1230,22 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="1">
-        <x:v>45417.8909722222</x:v>
+        <x:v>45417.9381944444</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>23057655</x:v>
+        <x:v>18200415</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>1025</x:v>
@@ -1235,13 +1256,13 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="1">
-        <x:v>45417.8958333333</x:v>
+        <x:v>45417.8451388889</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>10</x:v>
@@ -1250,7 +1271,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>22486634</x:v>
+        <x:v>25117751</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>1026</x:v>
@@ -1261,13 +1282,13 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="1">
-        <x:v>45417.90625</x:v>
+        <x:v>45417.85</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>10</x:v>
@@ -1276,7 +1297,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>90886403</x:v>
+        <x:v>76751186</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>1027</x:v>
@@ -1287,13 +1308,13 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="1">
-        <x:v>45417.9298611111</x:v>
+        <x:v>45417.8638888889</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>10</x:v>
@@ -1302,7 +1323,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>86138263</x:v>
+        <x:v>29607507</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>1028</x:v>
@@ -1313,22 +1334,22 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="1">
-        <x:v>45417.8381944444</x:v>
+        <x:v>45417.8680555556</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>85106913</x:v>
+        <x:v>93311549</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>1029</x:v>
@@ -1339,22 +1360,22 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="1">
-        <x:v>45417.8708333333</x:v>
+        <x:v>45417.8909722222</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>12501967</x:v>
+        <x:v>23057655</x:v>
       </x:c>
       <x:c r="G31" s="0" t="n">
         <x:v>1030</x:v>
@@ -1365,22 +1386,22 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="1">
-        <x:v>45417.8888888889</x:v>
+        <x:v>45417.8958333333</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>52274103</x:v>
+        <x:v>22486634</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>1031</x:v>
@@ -1391,22 +1412,22 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="1">
-        <x:v>45417.8979166667</x:v>
+        <x:v>45417.90625</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>79155582</x:v>
+        <x:v>90886403</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>1032</x:v>
@@ -1417,22 +1438,22 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="1">
-        <x:v>45417.9006944444</x:v>
+        <x:v>45417.9298611111</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>51214237</x:v>
+        <x:v>86138263</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>1033</x:v>
@@ -1443,22 +1464,22 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="1">
-        <x:v>45417.9104166667</x:v>
+        <x:v>45417.9347222222</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>22193463</x:v>
+        <x:v>15764979</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>1034</x:v>
@@ -1469,22 +1490,22 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="1">
-        <x:v>45417.9138888889</x:v>
+        <x:v>45417.9395833333</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>78752400</x:v>
+        <x:v>58719994</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>1035</x:v>
@@ -1495,22 +1516,22 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="1">
-        <x:v>45417.9270833333</x:v>
+        <x:v>45417.8381944444</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>63113515</x:v>
+        <x:v>85106913</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>1036</x:v>
@@ -1521,22 +1542,22 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="1">
-        <x:v>45417.8611111111</x:v>
+        <x:v>45417.8708333333</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>86467940</x:v>
+        <x:v>12501967</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>1037</x:v>
@@ -1547,22 +1568,22 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="1">
-        <x:v>45417.86875</x:v>
+        <x:v>45417.8888888889</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>89442809</x:v>
+        <x:v>52274103</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>1038</x:v>
@@ -1573,22 +1594,22 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="1">
-        <x:v>45417.8805555556</x:v>
+        <x:v>45417.8979166667</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>17283267</x:v>
+        <x:v>79155582</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>1039</x:v>
@@ -1599,22 +1620,22 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="1">
-        <x:v>45417.8847222222</x:v>
+        <x:v>45417.9006944444</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>22872164</x:v>
+        <x:v>51214237</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>1040</x:v>
@@ -1628,13 +1649,13 @@
         <x:v>45417.9104166667</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>14</x:v>
@@ -1654,13 +1675,13 @@
         <x:v>45417.9138888889</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>14</x:v>
@@ -1680,13 +1701,13 @@
         <x:v>45417.9270833333</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>14</x:v>
@@ -1706,13 +1727,13 @@
         <x:v>45417.9340277778</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>14</x:v>
@@ -1732,13 +1753,13 @@
         <x:v>45417.9576388889</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>14</x:v>
@@ -1758,13 +1779,13 @@
         <x:v>45417.8611111111</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>14</x:v>
@@ -1784,13 +1805,13 @@
         <x:v>45417.86875</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>14</x:v>
@@ -1810,13 +1831,13 @@
         <x:v>45417.8805555556</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>14</x:v>
@@ -1836,13 +1857,13 @@
         <x:v>45417.8847222222</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>14</x:v>
@@ -1862,13 +1883,13 @@
         <x:v>45417.9020833333</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>14</x:v>

--- a/Final List with Registration No.xlsx
+++ b/Final List with Registration No.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -85,6 +85,12 @@
     <x:t>Jeffery Barker</x:t>
   </x:si>
   <x:si>
+    <x:t>Jon Wood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Briana Griffin</x:t>
+  </x:si>
+  <x:si>
     <x:t>Dylan Newton</x:t>
   </x:si>
   <x:si>
@@ -121,6 +127,12 @@
     <x:t>David Preston</x:t>
   </x:si>
   <x:si>
+    <x:t>Christopher Chavez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robert Lutz</x:t>
+  </x:si>
+  <x:si>
     <x:t>Megan Mendoza</x:t>
   </x:si>
   <x:si>
@@ -139,6 +151,9 @@
     <x:t>Candice Decker PhD</x:t>
   </x:si>
   <x:si>
+    <x:t>David Green</x:t>
+  </x:si>
+  <x:si>
     <x:t>Gregory Cunningham</x:t>
   </x:si>
   <x:si>
@@ -172,6 +187,12 @@
     <x:t>Erik Oconnor</x:t>
   </x:si>
   <x:si>
+    <x:t>Brittney Nelson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hannah Alvarez</x:t>
+  </x:si>
+  <x:si>
     <x:t>Nathaniel Jones</x:t>
   </x:si>
   <x:si>
@@ -202,6 +223,12 @@
     <x:t>George Hill</x:t>
   </x:si>
   <x:si>
+    <x:t>Megan Osborne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shawn Gomez</x:t>
+  </x:si>
+  <x:si>
     <x:t>Timothy Butler</x:t>
   </x:si>
   <x:si>
@@ -215,6 +242,9 @@
   </x:si>
   <x:si>
     <x:t>Suzanne Price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Michelle Kelly</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -866,7 +896,7 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="1">
-        <x:v>45417.8368055556</x:v>
+        <x:v>45417.9194444444</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>23</x:v>
@@ -875,13 +905,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>61276100</x:v>
+        <x:v>83650172</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>1011</x:v>
@@ -892,22 +922,22 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="1">
-        <x:v>45417.8416666667</x:v>
+        <x:v>45417.9229166667</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>79466164</x:v>
+        <x:v>41823611</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>1012</x:v>
@@ -918,22 +948,22 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="1">
-        <x:v>45417.8486111111</x:v>
+        <x:v>45417.8368055556</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>64709089</x:v>
+        <x:v>61276100</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>1013</x:v>
@@ -944,7 +974,7 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="1">
-        <x:v>45417.8652777778</x:v>
+        <x:v>45417.8416666667</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>28</x:v>
@@ -953,13 +983,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>53529073</x:v>
+        <x:v>79466164</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>1014</x:v>
@@ -970,7 +1000,7 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="1">
-        <x:v>45417.8673611111</x:v>
+        <x:v>45417.8486111111</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>29</x:v>
@@ -979,13 +1009,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>76273159</x:v>
+        <x:v>64709089</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>1015</x:v>
@@ -996,7 +1026,7 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="1">
-        <x:v>45417.8736111111</x:v>
+        <x:v>45417.8652777778</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>30</x:v>
@@ -1005,13 +1035,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>73430518</x:v>
+        <x:v>53529073</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>1016</x:v>
@@ -1022,7 +1052,7 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8673611111</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>31</x:v>
@@ -1031,13 +1061,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>67853509</x:v>
+        <x:v>76273159</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>1017</x:v>
@@ -1048,7 +1078,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8736111111</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>32</x:v>
@@ -1057,13 +1087,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>41599890</x:v>
+        <x:v>73430518</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>1018</x:v>
@@ -1074,7 +1104,7 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="1">
-        <x:v>45417.8819444444</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>33</x:v>
@@ -1083,13 +1113,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>95775763</x:v>
+        <x:v>67853509</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>1019</x:v>
@@ -1100,7 +1130,7 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="1">
-        <x:v>45417.8951388889</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>34</x:v>
@@ -1109,13 +1139,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>96221071</x:v>
+        <x:v>41599890</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>1020</x:v>
@@ -1126,7 +1156,7 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="1">
-        <x:v>45417.8472222222</x:v>
+        <x:v>45417.8819444444</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>35</x:v>
@@ -1135,13 +1165,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>40138873</x:v>
+        <x:v>95775763</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>1021</x:v>
@@ -1152,22 +1182,22 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="1">
-        <x:v>45417.8833333333</x:v>
+        <x:v>45417.8951388889</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>95133747</x:v>
+        <x:v>96221071</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>1022</x:v>
@@ -1178,22 +1208,22 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="1">
-        <x:v>45417.9034722222</x:v>
+        <x:v>45417.9145833333</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>91437948</x:v>
+        <x:v>95350918</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>1023</x:v>
@@ -1204,22 +1234,22 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="1">
-        <x:v>45417.9319444444</x:v>
+        <x:v>45417.9361111111</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>68716753</x:v>
+        <x:v>95828882</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>1024</x:v>
@@ -1230,22 +1260,22 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="1">
-        <x:v>45417.9381944444</x:v>
+        <x:v>45417.8472222222</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>18200415</x:v>
+        <x:v>40138873</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>1025</x:v>
@@ -1256,22 +1286,22 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="1">
-        <x:v>45417.8451388889</x:v>
+        <x:v>45417.8833333333</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>25117751</x:v>
+        <x:v>95133747</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>1026</x:v>
@@ -1282,22 +1312,22 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="1">
-        <x:v>45417.85</x:v>
+        <x:v>45417.9034722222</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>76751186</x:v>
+        <x:v>91437948</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>1027</x:v>
@@ -1308,22 +1338,22 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="1">
-        <x:v>45417.8638888889</x:v>
+        <x:v>45417.9319444444</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>29607507</x:v>
+        <x:v>68716753</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>1028</x:v>
@@ -1334,22 +1364,22 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="1">
-        <x:v>45417.8680555556</x:v>
+        <x:v>45417.9381944444</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>93311549</x:v>
+        <x:v>18200415</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>1029</x:v>
@@ -1360,22 +1390,22 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="1">
-        <x:v>45417.8909722222</x:v>
+        <x:v>45417.9451388889</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>23057655</x:v>
+        <x:v>64714222</x:v>
       </x:c>
       <x:c r="G31" s="0" t="n">
         <x:v>1030</x:v>
@@ -1386,13 +1416,13 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="1">
-        <x:v>45417.8958333333</x:v>
+        <x:v>45417.8451388889</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>10</x:v>
@@ -1401,7 +1431,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>22486634</x:v>
+        <x:v>25117751</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>1031</x:v>
@@ -1412,13 +1442,13 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="1">
-        <x:v>45417.90625</x:v>
+        <x:v>45417.85</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>10</x:v>
@@ -1427,7 +1457,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>90886403</x:v>
+        <x:v>76751186</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>1032</x:v>
@@ -1438,13 +1468,13 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="1">
-        <x:v>45417.9298611111</x:v>
+        <x:v>45417.8638888889</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
         <x:v>10</x:v>
@@ -1453,7 +1483,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>86138263</x:v>
+        <x:v>29607507</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>1033</x:v>
@@ -1464,13 +1494,13 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="1">
-        <x:v>45417.9347222222</x:v>
+        <x:v>45417.8680555556</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>10</x:v>
@@ -1479,7 +1509,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>15764979</x:v>
+        <x:v>93311549</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>1034</x:v>
@@ -1490,13 +1520,13 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="1">
-        <x:v>45417.9395833333</x:v>
+        <x:v>45417.8909722222</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
         <x:v>10</x:v>
@@ -1505,7 +1535,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>58719994</x:v>
+        <x:v>23057655</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>1035</x:v>
@@ -1516,22 +1546,22 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="1">
-        <x:v>45417.8381944444</x:v>
+        <x:v>45417.8958333333</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>85106913</x:v>
+        <x:v>22486634</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>1036</x:v>
@@ -1542,22 +1572,22 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="1">
-        <x:v>45417.8708333333</x:v>
+        <x:v>45417.90625</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>12501967</x:v>
+        <x:v>90886403</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>1037</x:v>
@@ -1568,22 +1598,22 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="1">
-        <x:v>45417.8888888889</x:v>
+        <x:v>45417.9298611111</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>52274103</x:v>
+        <x:v>86138263</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>1038</x:v>
@@ -1594,22 +1624,22 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="1">
-        <x:v>45417.8979166667</x:v>
+        <x:v>45417.9347222222</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>79155582</x:v>
+        <x:v>15764979</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>1039</x:v>
@@ -1620,22 +1650,22 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="1">
-        <x:v>45417.9006944444</x:v>
+        <x:v>45417.9395833333</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>51214237</x:v>
+        <x:v>58719994</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>1040</x:v>
@@ -1646,22 +1676,22 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="1">
-        <x:v>45417.9104166667</x:v>
+        <x:v>45417.9534722222</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>22193463</x:v>
+        <x:v>76810268</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>1041</x:v>
@@ -1672,22 +1702,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="1">
-        <x:v>45417.9138888889</x:v>
+        <x:v>45417.9729166667</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>78752400</x:v>
+        <x:v>31337203</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>1042</x:v>
@@ -1698,22 +1728,22 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="1">
-        <x:v>45417.9270833333</x:v>
+        <x:v>45417.8381944444</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>63113515</x:v>
+        <x:v>85106913</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>1043</x:v>
@@ -1724,22 +1754,22 @@
     </x:row>
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="1">
-        <x:v>45417.9340277778</x:v>
+        <x:v>45417.8708333333</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>19978185</x:v>
+        <x:v>12501967</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>1044</x:v>
@@ -1750,22 +1780,22 @@
     </x:row>
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="1">
-        <x:v>45417.9576388889</x:v>
+        <x:v>45417.8888888889</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>74640463</x:v>
+        <x:v>52274103</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>1045</x:v>
@@ -1776,22 +1806,22 @@
     </x:row>
     <x:row r="47" spans="1:8">
       <x:c r="A47" s="1">
-        <x:v>45417.8611111111</x:v>
+        <x:v>45417.8979166667</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>86467940</x:v>
+        <x:v>79155582</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>1046</x:v>
@@ -1802,22 +1832,22 @@
     </x:row>
     <x:row r="48" spans="1:8">
       <x:c r="A48" s="1">
-        <x:v>45417.86875</x:v>
+        <x:v>45417.9006944444</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>89442809</x:v>
+        <x:v>51214237</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>1047</x:v>
@@ -1828,22 +1858,22 @@
     </x:row>
     <x:row r="49" spans="1:8">
       <x:c r="A49" s="1">
-        <x:v>45417.8805555556</x:v>
+        <x:v>45417.9104166667</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>17283267</x:v>
+        <x:v>22193463</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>1048</x:v>
@@ -1854,22 +1884,22 @@
     </x:row>
     <x:row r="50" spans="1:8">
       <x:c r="A50" s="1">
-        <x:v>45417.8847222222</x:v>
+        <x:v>45417.9138888889</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>22872164</x:v>
+        <x:v>78752400</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>1049</x:v>
@@ -1880,27 +1910,287 @@
     </x:row>
     <x:row r="51" spans="1:8">
       <x:c r="A51" s="1">
-        <x:v>45417.9020833333</x:v>
+        <x:v>45417.9270833333</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>31162803</x:v>
+        <x:v>63113515</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>1050</x:v>
       </x:c>
       <x:c r="H51" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:8">
+      <x:c r="A52" s="1">
+        <x:v>45417.9340277778</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="n">
+        <x:v>19978185</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="n">
+        <x:v>1051</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:8">
+      <x:c r="A53" s="1">
+        <x:v>45417.9576388889</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="n">
+        <x:v>74640463</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="n">
+        <x:v>1052</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:8">
+      <x:c r="A54" s="1">
+        <x:v>45417.9618055556</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="n">
+        <x:v>73261856</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="n">
+        <x:v>1053</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:8">
+      <x:c r="A55" s="1">
+        <x:v>45417.9680555556</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="n">
+        <x:v>94511350</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="n">
+        <x:v>1054</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:8">
+      <x:c r="A56" s="1">
+        <x:v>45417.8611111111</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="n">
+        <x:v>86467940</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="n">
+        <x:v>1055</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:8">
+      <x:c r="A57" s="1">
+        <x:v>45417.86875</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="n">
+        <x:v>89442809</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="n">
+        <x:v>1056</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:8">
+      <x:c r="A58" s="1">
+        <x:v>45417.8805555556</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="n">
+        <x:v>17283267</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="n">
+        <x:v>1057</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:8">
+      <x:c r="A59" s="1">
+        <x:v>45417.8847222222</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="n">
+        <x:v>22872164</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="n">
+        <x:v>1058</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:8">
+      <x:c r="A60" s="1">
+        <x:v>45417.9020833333</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="n">
+        <x:v>31162803</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="n">
+        <x:v>1059</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:8">
+      <x:c r="A61" s="1">
+        <x:v>45417.9076388889</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="n">
+        <x:v>29597549</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="n">
+        <x:v>1060</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>

--- a/Final List with Registration No.xlsx
+++ b/Final List with Registration No.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Timestamp</x:t>
   </x:si>
@@ -85,12 +85,6 @@
     <x:t>Jeffery Barker</x:t>
   </x:si>
   <x:si>
-    <x:t>Jon Wood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Briana Griffin</x:t>
-  </x:si>
-  <x:si>
     <x:t>Dylan Newton</x:t>
   </x:si>
   <x:si>
@@ -127,12 +121,6 @@
     <x:t>David Preston</x:t>
   </x:si>
   <x:si>
-    <x:t>Christopher Chavez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robert Lutz</x:t>
-  </x:si>
-  <x:si>
     <x:t>Megan Mendoza</x:t>
   </x:si>
   <x:si>
@@ -151,9 +139,6 @@
     <x:t>Candice Decker PhD</x:t>
   </x:si>
   <x:si>
-    <x:t>David Green</x:t>
-  </x:si>
-  <x:si>
     <x:t>Gregory Cunningham</x:t>
   </x:si>
   <x:si>
@@ -187,12 +172,6 @@
     <x:t>Erik Oconnor</x:t>
   </x:si>
   <x:si>
-    <x:t>Brittney Nelson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hannah Alvarez</x:t>
-  </x:si>
-  <x:si>
     <x:t>Nathaniel Jones</x:t>
   </x:si>
   <x:si>
@@ -223,25 +202,25 @@
     <x:t>George Hill</x:t>
   </x:si>
   <x:si>
+    <x:t>Timothy Butler</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jason Berg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lance Cooley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sydney Hendricks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suzanne Price</x:t>
+  </x:si>
+  <x:si>
     <x:t>Megan Osborne</x:t>
   </x:si>
   <x:si>
     <x:t>Shawn Gomez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Timothy Butler</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jason Berg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lance Cooley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sydney Hendricks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Suzanne Price</x:t>
   </x:si>
   <x:si>
     <x:t>Michelle Kelly</x:t>
@@ -896,7 +875,7 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="1">
-        <x:v>45417.9194444444</x:v>
+        <x:v>45417.8368055556</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>23</x:v>
@@ -905,13 +884,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>83650172</x:v>
+        <x:v>61276100</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>1011</x:v>
@@ -922,22 +901,22 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="1">
-        <x:v>45417.9229166667</x:v>
+        <x:v>45417.8416666667</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>41823611</x:v>
+        <x:v>79466164</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>1012</x:v>
@@ -948,22 +927,22 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="1">
-        <x:v>45417.8368055556</x:v>
+        <x:v>45417.8486111111</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>61276100</x:v>
+        <x:v>64709089</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>1013</x:v>
@@ -974,7 +953,7 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="1">
-        <x:v>45417.8416666667</x:v>
+        <x:v>45417.8652777778</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>28</x:v>
@@ -983,13 +962,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>79466164</x:v>
+        <x:v>53529073</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>1014</x:v>
@@ -1000,7 +979,7 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="1">
-        <x:v>45417.8486111111</x:v>
+        <x:v>45417.8673611111</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>29</x:v>
@@ -1009,13 +988,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>64709089</x:v>
+        <x:v>76273159</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>1015</x:v>
@@ -1026,7 +1005,7 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="1">
-        <x:v>45417.8652777778</x:v>
+        <x:v>45417.8736111111</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>30</x:v>
@@ -1035,13 +1014,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>53529073</x:v>
+        <x:v>73430518</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>1016</x:v>
@@ -1052,7 +1031,7 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="1">
-        <x:v>45417.8673611111</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>31</x:v>
@@ -1061,13 +1040,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>76273159</x:v>
+        <x:v>67853509</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>1017</x:v>
@@ -1078,7 +1057,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="1">
-        <x:v>45417.8736111111</x:v>
+        <x:v>45417.8770833333</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>32</x:v>
@@ -1087,13 +1066,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>73430518</x:v>
+        <x:v>41599890</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>1018</x:v>
@@ -1104,7 +1083,7 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8819444444</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>33</x:v>
@@ -1113,13 +1092,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>67853509</x:v>
+        <x:v>95775763</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>1019</x:v>
@@ -1130,7 +1109,7 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="1">
-        <x:v>45417.8770833333</x:v>
+        <x:v>45417.8951388889</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>34</x:v>
@@ -1139,13 +1118,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>41599890</x:v>
+        <x:v>96221071</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>1020</x:v>
@@ -1156,7 +1135,7 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="1">
-        <x:v>45417.8819444444</x:v>
+        <x:v>45417.8472222222</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>35</x:v>
@@ -1165,13 +1144,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>95775763</x:v>
+        <x:v>40138873</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>1021</x:v>
@@ -1182,22 +1161,22 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="1">
-        <x:v>45417.8951388889</x:v>
+        <x:v>45417.8833333333</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>96221071</x:v>
+        <x:v>95133747</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>1022</x:v>
@@ -1208,22 +1187,22 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="1">
-        <x:v>45417.9145833333</x:v>
+        <x:v>45417.9034722222</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>95350918</x:v>
+        <x:v>91437948</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>1023</x:v>
@@ -1234,22 +1213,22 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="1">
-        <x:v>45417.9361111111</x:v>
+        <x:v>45417.9319444444</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>95828882</x:v>
+        <x:v>68716753</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>1024</x:v>
@@ -1260,22 +1239,22 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="1">
-        <x:v>45417.8472222222</x:v>
+        <x:v>45417.9381944444</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>40138873</x:v>
+        <x:v>18200415</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>1025</x:v>
@@ -1286,22 +1265,22 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="1">
-        <x:v>45417.8833333333</x:v>
+        <x:v>45417.8451388889</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>95133747</x:v>
+        <x:v>25117751</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>1026</x:v>
@@ -1312,22 +1291,22 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="1">
-        <x:v>45417.9034722222</x:v>
+        <x:v>45417.85</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>91437948</x:v>
+        <x:v>76751186</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>1027</x:v>
@@ -1338,22 +1317,22 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="1">
-        <x:v>45417.9319444444</x:v>
+        <x:v>45417.8638888889</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>68716753</x:v>
+        <x:v>29607507</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>1028</x:v>
@@ -1364,22 +1343,22 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="1">
-        <x:v>45417.9381944444</x:v>
+        <x:v>45417.8680555556</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>18200415</x:v>
+        <x:v>93311549</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>1029</x:v>
@@ -1390,22 +1369,22 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="1">
-        <x:v>45417.9451388889</x:v>
+        <x:v>45417.8909722222</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>64714222</x:v>
+        <x:v>23057655</x:v>
       </x:c>
       <x:c r="G31" s="0" t="n">
         <x:v>1030</x:v>
@@ -1416,13 +1395,13 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="1">
-        <x:v>45417.8451388889</x:v>
+        <x:v>45417.8958333333</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>10</x:v>
@@ -1431,7 +1410,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>25117751</x:v>
+        <x:v>22486634</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>1031</x:v>
@@ -1442,13 +1421,13 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="1">
-        <x:v>45417.85</x:v>
+        <x:v>45417.90625</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>10</x:v>
@@ -1457,7 +1436,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>76751186</x:v>
+        <x:v>90886403</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>1032</x:v>
@@ -1468,13 +1447,13 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="1">
-        <x:v>45417.8638888889</x:v>
+        <x:v>45417.9298611111</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
         <x:v>10</x:v>
@@ -1483,7 +1462,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>29607507</x:v>
+        <x:v>86138263</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>1033</x:v>
@@ -1494,13 +1473,13 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="1">
-        <x:v>45417.8680555556</x:v>
+        <x:v>45417.9347222222</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>10</x:v>
@@ -1509,7 +1488,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>93311549</x:v>
+        <x:v>15764979</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>1034</x:v>
@@ -1520,13 +1499,13 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="1">
-        <x:v>45417.8909722222</x:v>
+        <x:v>45417.9395833333</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
         <x:v>10</x:v>
@@ -1535,7 +1514,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>23057655</x:v>
+        <x:v>58719994</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>1035</x:v>
@@ -1546,22 +1525,22 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="1">
-        <x:v>45417.8958333333</x:v>
+        <x:v>45417.8381944444</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>22486634</x:v>
+        <x:v>85106913</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>1036</x:v>
@@ -1572,22 +1551,22 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="1">
-        <x:v>45417.90625</x:v>
+        <x:v>45417.8708333333</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>90886403</x:v>
+        <x:v>12501967</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>1037</x:v>
@@ -1598,22 +1577,22 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="1">
-        <x:v>45417.9298611111</x:v>
+        <x:v>45417.8888888889</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>86138263</x:v>
+        <x:v>52274103</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>1038</x:v>
@@ -1624,22 +1603,22 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="1">
-        <x:v>45417.9347222222</x:v>
+        <x:v>45417.8979166667</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>15764979</x:v>
+        <x:v>79155582</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>1039</x:v>
@@ -1650,22 +1629,22 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="1">
-        <x:v>45417.9395833333</x:v>
+        <x:v>45417.9006944444</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>58719994</x:v>
+        <x:v>51214237</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>1040</x:v>
@@ -1676,22 +1655,22 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="1">
-        <x:v>45417.9534722222</x:v>
+        <x:v>45417.9104166667</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>76810268</x:v>
+        <x:v>22193463</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>1041</x:v>
@@ -1702,22 +1681,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="1">
-        <x:v>45417.9729166667</x:v>
+        <x:v>45417.9138888889</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>31337203</x:v>
+        <x:v>78752400</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>1042</x:v>
@@ -1728,22 +1707,22 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="1">
-        <x:v>45417.8381944444</x:v>
+        <x:v>45417.9270833333</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>85106913</x:v>
+        <x:v>63113515</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>1043</x:v>
@@ -1754,22 +1733,22 @@
     </x:row>
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="1">
-        <x:v>45417.8708333333</x:v>
+        <x:v>45417.9340277778</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>12501967</x:v>
+        <x:v>19978185</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>1044</x:v>
@@ -1780,22 +1759,22 @@
     </x:row>
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="1">
-        <x:v>45417.8888888889</x:v>
+        <x:v>45417.9576388889</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>52274103</x:v>
+        <x:v>74640463</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>1045</x:v>
@@ -1806,22 +1785,22 @@
     </x:row>
     <x:row r="47" spans="1:8">
       <x:c r="A47" s="1">
-        <x:v>45417.8979166667</x:v>
+        <x:v>45417.8611111111</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>79155582</x:v>
+        <x:v>86467940</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>1046</x:v>
@@ -1832,22 +1811,22 @@
     </x:row>
     <x:row r="48" spans="1:8">
       <x:c r="A48" s="1">
-        <x:v>45417.9006944444</x:v>
+        <x:v>45417.86875</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>51214237</x:v>
+        <x:v>89442809</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>1047</x:v>
@@ -1858,22 +1837,22 @@
     </x:row>
     <x:row r="49" spans="1:8">
       <x:c r="A49" s="1">
-        <x:v>45417.9104166667</x:v>
+        <x:v>45417.8805555556</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>22193463</x:v>
+        <x:v>17283267</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>1048</x:v>
@@ -1884,22 +1863,22 @@
     </x:row>
     <x:row r="50" spans="1:8">
       <x:c r="A50" s="1">
-        <x:v>45417.9138888889</x:v>
+        <x:v>45417.8847222222</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>78752400</x:v>
+        <x:v>22872164</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>1049</x:v>
@@ -1910,22 +1889,22 @@
     </x:row>
     <x:row r="51" spans="1:8">
       <x:c r="A51" s="1">
-        <x:v>45417.9270833333</x:v>
+        <x:v>45417.9020833333</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>63113515</x:v>
+        <x:v>31162803</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>1050</x:v>
@@ -1939,13 +1918,13 @@
         <x:v>45417.9340277778</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>14</x:v>
@@ -1965,13 +1944,13 @@
         <x:v>45417.9576388889</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
         <x:v>14</x:v>
@@ -1991,13 +1970,13 @@
         <x:v>45417.9618055556</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
         <x:v>14</x:v>
@@ -2017,13 +1996,13 @@
         <x:v>45417.9680555556</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
         <x:v>14</x:v>
@@ -2043,13 +2022,13 @@
         <x:v>45417.8611111111</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
         <x:v>14</x:v>
@@ -2069,13 +2048,13 @@
         <x:v>45417.86875</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
         <x:v>14</x:v>
@@ -2095,13 +2074,13 @@
         <x:v>45417.8805555556</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
         <x:v>14</x:v>
@@ -2121,13 +2100,13 @@
         <x:v>45417.8847222222</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
         <x:v>14</x:v>
@@ -2147,13 +2126,13 @@
         <x:v>45417.9020833333</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>14</x:v>
@@ -2173,13 +2152,13 @@
         <x:v>45417.9076388889</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>14</x:v>
